--- a/experiments/evaluation/llm-based/roberta-base_15/original_remove/rem2/word_level_error_type_summary.xlsx
+++ b/experiments/evaluation/llm-based/roberta-base_15/original_remove/rem2/word_level_error_type_summary.xlsx
@@ -493,7 +493,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Missed_E-Event</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -503,7 +503,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Missed_E-Event</t>
         </is>
       </c>
       <c r="B8" t="n">
